--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Ccl20-Ackr4.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Ccl20-Ackr4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -89,6 +89,9 @@
   </si>
   <si>
     <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -446,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T4"/>
+  <dimension ref="A1:T5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -534,7 +537,7 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.8243956666666666</v>
+        <v>0.8243956666666667</v>
       </c>
       <c r="H2">
         <v>2.473187</v>
@@ -552,28 +555,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.07058066666666667</v>
+        <v>0.011782</v>
       </c>
       <c r="N2">
-        <v>0.211742</v>
+        <v>0.035346</v>
       </c>
       <c r="O2">
-        <v>0.09603293044844197</v>
+        <v>0.0185453160301082</v>
       </c>
       <c r="P2">
-        <v>0.1063685922746608</v>
+        <v>0.0190618769471875</v>
       </c>
       <c r="Q2">
-        <v>0.05818639575044444</v>
+        <v>0.009713029744666668</v>
       </c>
       <c r="R2">
-        <v>0.523677561754</v>
+        <v>0.08741726770200002</v>
       </c>
       <c r="S2">
-        <v>0.09603293044844197</v>
+        <v>0.0185453160301082</v>
       </c>
       <c r="T2">
-        <v>0.1063685922746608</v>
+        <v>0.0190618769471875</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,7 +599,7 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.8243956666666666</v>
+        <v>0.8243956666666667</v>
       </c>
       <c r="H3">
         <v>2.473187</v>
@@ -614,28 +617,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>0.4501370000000001</v>
+        <v>0.450137</v>
       </c>
       <c r="N3">
         <v>1.350411</v>
       </c>
       <c r="O3">
-        <v>0.612461985056394</v>
+        <v>0.7085327552066554</v>
       </c>
       <c r="P3">
-        <v>0.678378956759722</v>
+        <v>0.7282682145116399</v>
       </c>
       <c r="Q3">
-        <v>0.3710909922063333</v>
+        <v>0.3710909922063334</v>
       </c>
       <c r="R3">
         <v>3.339818929857</v>
       </c>
       <c r="S3">
-        <v>0.612461985056394</v>
+        <v>0.7085327552066554</v>
       </c>
       <c r="T3">
-        <v>0.678378956759722</v>
+        <v>0.7282682145116399</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,7 +661,7 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.8243956666666666</v>
+        <v>0.8243956666666667</v>
       </c>
       <c r="H4">
         <v>2.473187</v>
@@ -676,28 +679,90 @@
         <v>0.5</v>
       </c>
       <c r="M4">
-        <v>0.2142455</v>
+        <v>0.051649</v>
       </c>
       <c r="N4">
-        <v>0.428491</v>
+        <v>0.103298</v>
       </c>
       <c r="O4">
-        <v>0.291505084495164</v>
+        <v>0.08129749003896268</v>
       </c>
       <c r="P4">
-        <v>0.2152524509656171</v>
+        <v>0.05570796596193557</v>
       </c>
       <c r="Q4">
-        <v>0.1766230618028333</v>
+        <v>0.04257921178766667</v>
       </c>
       <c r="R4">
-        <v>1.059738370817</v>
+        <v>0.255475270726</v>
       </c>
       <c r="S4">
-        <v>0.291505084495164</v>
+        <v>0.08129749003896268</v>
       </c>
       <c r="T4">
-        <v>0.2152524509656171</v>
+        <v>0.05570796596193557</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>0.8243956666666667</v>
+      </c>
+      <c r="H5">
+        <v>2.473187</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M5">
+        <v>0.1217406666666667</v>
+      </c>
+      <c r="N5">
+        <v>0.365222</v>
+      </c>
+      <c r="O5">
+        <v>0.1916244387242736</v>
+      </c>
+      <c r="P5">
+        <v>0.1969619425792371</v>
+      </c>
+      <c r="Q5">
+        <v>0.1003624780571111</v>
+      </c>
+      <c r="R5">
+        <v>0.9032623025140001</v>
+      </c>
+      <c r="S5">
+        <v>0.1916244387242736</v>
+      </c>
+      <c r="T5">
+        <v>0.1969619425792371</v>
       </c>
     </row>
   </sheetData>
